--- a/mydir/კონკურენტუნარიანობა(1).xlsx
+++ b/mydir/კონკურენტუნარიანობა(1).xlsx
@@ -312,10 +312,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -434,7 +434,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +546,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -553,12 +559,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -577,21 +583,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,7 +618,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -622,8 +628,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -640,18 +646,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1143,8 +1156,8 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1296,38 +1309,38 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="43">
         <v>156808.94907271123</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45">
+      <c r="F3" s="43"/>
+      <c r="G3" s="44">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
+      <c r="H3" s="44"/>
+      <c r="I3" s="45">
         <v>3.2329748497876216</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="48">
+      <c r="J3" s="45"/>
+      <c r="K3" s="47">
         <v>1002.3536486143336</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49">
+      <c r="L3" s="47"/>
+      <c r="M3" s="48">
         <v>0.59863469363528787</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="47">
+      <c r="N3" s="48"/>
+      <c r="O3" s="46">
         <v>0.32551239551954869</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46">
         <v>0.29380389963661629</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="50">
+      <c r="R3" s="46"/>
+      <c r="S3" s="49">
         <v>1.6057260200883033E-2</v>
       </c>
-      <c r="T3" s="43"/>
+      <c r="T3" s="42"/>
       <c r="U3" s="7"/>
       <c r="V3" s="9"/>
       <c r="W3" s="6"/>
@@ -1347,38 +1360,38 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <v>53337.921541637988</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46">
+      <c r="H4" s="44"/>
+      <c r="I4" s="45">
         <v>1.2558623454240077</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="48">
+      <c r="J4" s="45"/>
+      <c r="K4" s="47">
         <v>650.12914513135308</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49">
+      <c r="L4" s="47"/>
+      <c r="M4" s="48">
         <v>0.72514356363742527</v>
       </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="47">
+      <c r="N4" s="48"/>
+      <c r="O4" s="46">
         <v>0.55217010230230712</v>
       </c>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46">
         <v>0.90394522952417822</v>
       </c>
-      <c r="R4" s="47"/>
-      <c r="S4" s="50">
+      <c r="R4" s="46"/>
+      <c r="S4" s="49">
         <v>1.5278760009430433E-2</v>
       </c>
-      <c r="T4" s="43"/>
+      <c r="T4" s="42"/>
       <c r="U4" s="7"/>
       <c r="V4" s="9"/>
       <c r="W4" s="6"/>
@@ -1398,38 +1411,38 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>285793.17962170369</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44">
         <v>0.436</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46">
+      <c r="H5" s="44"/>
+      <c r="I5" s="45">
         <v>5.4377507442915025</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="48">
+      <c r="J5" s="45"/>
+      <c r="K5" s="47">
         <v>1108.6612466593035</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49">
+      <c r="L5" s="47"/>
+      <c r="M5" s="48">
         <v>0.44230057931978539</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="47">
+      <c r="N5" s="48"/>
+      <c r="O5" s="46">
         <v>6.8416966790875722E-2</v>
       </c>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46">
         <v>0.33655205925213538</v>
       </c>
-      <c r="R5" s="47"/>
-      <c r="S5" s="50">
+      <c r="R5" s="46"/>
+      <c r="S5" s="49">
         <v>2.0132024863450778E-2</v>
       </c>
-      <c r="T5" s="43"/>
+      <c r="T5" s="42"/>
       <c r="U5" s="7"/>
       <c r="V5" s="9"/>
       <c r="W5" s="6"/>
@@ -1449,38 +1462,38 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>62030.673818303723</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45">
+      <c r="F6" s="43"/>
+      <c r="G6" s="44">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46">
+      <c r="H6" s="44"/>
+      <c r="I6" s="45">
         <v>1.7533141588847847</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="48">
+      <c r="J6" s="45"/>
+      <c r="K6" s="47">
         <v>676.27336796574025</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49">
+      <c r="L6" s="47"/>
+      <c r="M6" s="48">
         <v>0.63160732819482712</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="47">
+      <c r="N6" s="48"/>
+      <c r="O6" s="46">
         <v>0.42382279203252743</v>
       </c>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47">
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46">
         <v>0.6025540632216877</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="50">
+      <c r="R6" s="46"/>
+      <c r="S6" s="49">
         <v>9.2592900397697863E-3</v>
       </c>
-      <c r="T6" s="43"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="7"/>
       <c r="V6" s="9"/>
       <c r="W6" s="6"/>
@@ -1500,38 +1513,38 @@
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <v>51827.640180462207</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45">
+      <c r="F7" s="43"/>
+      <c r="G7" s="44">
         <v>6.3E-2</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46">
+      <c r="H7" s="44"/>
+      <c r="I7" s="45">
         <v>1.5791655831030522</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="48">
+      <c r="J7" s="45"/>
+      <c r="K7" s="47">
         <v>606.84880480812046</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49">
+      <c r="L7" s="47"/>
+      <c r="M7" s="48">
         <v>0.68975185634807779</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="47">
+      <c r="N7" s="48"/>
+      <c r="O7" s="46">
         <v>0.50141354439022812</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46">
         <v>0.73754779933884163</v>
       </c>
-      <c r="R7" s="47"/>
-      <c r="S7" s="50">
+      <c r="R7" s="46"/>
+      <c r="S7" s="49">
         <v>1.9337763594153366E-2</v>
       </c>
-      <c r="T7" s="43"/>
+      <c r="T7" s="42"/>
       <c r="U7" s="7"/>
       <c r="V7" s="9"/>
       <c r="W7" s="6"/>
@@ -1551,38 +1564,38 @@
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <v>190262.80323450133</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45">
+      <c r="F8" s="43"/>
+      <c r="G8" s="44">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46">
+      <c r="H8" s="44"/>
+      <c r="I8" s="45">
         <v>2.7131471574357309</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="48">
+      <c r="J8" s="45"/>
+      <c r="K8" s="47">
         <v>968.6096226841953</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49">
+      <c r="L8" s="47"/>
+      <c r="M8" s="48">
         <v>0.72514356363742527</v>
       </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="47">
+      <c r="N8" s="48"/>
+      <c r="O8" s="46">
         <v>0.55217010230230712</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46">
         <v>0.91056006231511</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="50">
+      <c r="R8" s="46"/>
+      <c r="S8" s="49">
         <v>1.296727656835483E-2</v>
       </c>
-      <c r="T8" s="43"/>
+      <c r="T8" s="42"/>
       <c r="U8" s="7"/>
       <c r="V8" s="9"/>
       <c r="W8" s="6"/>
@@ -1602,38 +1615,38 @@
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>24919.354838709682</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45">
+      <c r="F9" s="43"/>
+      <c r="G9" s="44">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46">
+      <c r="H9" s="44"/>
+      <c r="I9" s="45">
         <v>1.0008635357520161</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="48">
+      <c r="J9" s="45"/>
+      <c r="K9" s="47">
         <v>550.0808308773934</v>
       </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49">
+      <c r="L9" s="47"/>
+      <c r="M9" s="48">
         <v>0.63160732819482712</v>
       </c>
-      <c r="N9" s="49"/>
-      <c r="O9" s="47">
+      <c r="N9" s="48"/>
+      <c r="O9" s="46">
         <v>0.42382279203252743</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46">
         <v>0.9512481892743716</v>
       </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="50">
+      <c r="R9" s="46"/>
+      <c r="S9" s="49">
         <v>4.0507388871755352E-3</v>
       </c>
-      <c r="T9" s="43"/>
+      <c r="T9" s="42"/>
       <c r="U9" s="7"/>
       <c r="V9" s="9"/>
       <c r="W9" s="6"/>
@@ -1653,38 +1666,38 @@
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>89409.353173398122</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45">
+      <c r="F10" s="43"/>
+      <c r="G10" s="44">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46">
+      <c r="H10" s="44"/>
+      <c r="I10" s="45">
         <v>1.6914205614166984</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="48">
+      <c r="J10" s="45"/>
+      <c r="K10" s="47">
         <v>767.27784605503587</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49">
+      <c r="L10" s="47"/>
+      <c r="M10" s="48">
         <v>0.6383633600070675</v>
       </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="47">
+      <c r="N10" s="48"/>
+      <c r="O10" s="46">
         <v>0.39902382570504896</v>
       </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47">
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46">
         <v>0.62948352524019513</v>
       </c>
-      <c r="R10" s="47"/>
-      <c r="S10" s="50">
+      <c r="R10" s="46"/>
+      <c r="S10" s="49">
         <v>8.0684726018076074E-3</v>
       </c>
-      <c r="T10" s="43"/>
+      <c r="T10" s="42"/>
       <c r="U10" s="7"/>
       <c r="V10" s="9"/>
       <c r="W10" s="6"/>
@@ -1704,38 +1717,38 @@
       <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <v>117194.38877755511</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45">
+      <c r="F11" s="43"/>
+      <c r="G11" s="44">
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46">
+      <c r="H11" s="44"/>
+      <c r="I11" s="45">
         <v>1.5611801541282064</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="48">
+      <c r="J11" s="45"/>
+      <c r="K11" s="47">
         <v>707.28406223714512</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49">
+      <c r="L11" s="47"/>
+      <c r="M11" s="48">
         <v>0.72514356363742527</v>
       </c>
-      <c r="N11" s="49"/>
-      <c r="O11" s="47">
+      <c r="N11" s="48"/>
+      <c r="O11" s="46">
         <v>0.55217010230230712</v>
       </c>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47">
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46">
         <v>0.63858710472507774</v>
       </c>
-      <c r="R11" s="47"/>
-      <c r="S11" s="50">
+      <c r="R11" s="46"/>
+      <c r="S11" s="49">
         <v>8.4047038718282584E-3</v>
       </c>
-      <c r="T11" s="43"/>
+      <c r="T11" s="42"/>
       <c r="U11" s="7"/>
       <c r="V11" s="9"/>
       <c r="W11" s="6"/>
@@ -1755,38 +1768,38 @@
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <v>170560.60606060605</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45">
+      <c r="F12" s="43"/>
+      <c r="G12" s="44">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46">
+      <c r="H12" s="44"/>
+      <c r="I12" s="45">
         <v>2.5007452318448675</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="48">
+      <c r="J12" s="45"/>
+      <c r="K12" s="47">
         <v>861.86297147354162</v>
       </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49">
+      <c r="L12" s="47"/>
+      <c r="M12" s="48">
         <v>0.63780588481850931</v>
       </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="47">
+      <c r="N12" s="48"/>
+      <c r="O12" s="46">
         <v>0.43451196533410086</v>
       </c>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47">
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46">
         <v>0.61881520725259098</v>
       </c>
-      <c r="R12" s="47"/>
-      <c r="S12" s="50">
+      <c r="R12" s="46"/>
+      <c r="S12" s="49">
         <v>2.091997237323024E-2</v>
       </c>
-      <c r="T12" s="43"/>
+      <c r="T12" s="42"/>
       <c r="U12" s="7"/>
       <c r="V12" s="9"/>
       <c r="W12" s="6"/>
@@ -1806,44 +1819,44 @@
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <v>77462.121212121216</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45">
+      <c r="F13" s="43"/>
+      <c r="G13" s="44">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46">
+      <c r="H13" s="44"/>
+      <c r="I13" s="45">
         <v>1.7232913164999706</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="48">
+      <c r="J13" s="45"/>
+      <c r="K13" s="47">
         <v>557.40925517694791</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49">
+      <c r="L13" s="47"/>
+      <c r="M13" s="48">
         <v>0.63682273976982584</v>
       </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="47">
+      <c r="N13" s="48"/>
+      <c r="O13" s="46">
         <v>0.43954823960764983</v>
       </c>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47">
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46">
         <v>0.64934715360411321</v>
       </c>
-      <c r="R13" s="47"/>
-      <c r="S13" s="50">
+      <c r="R13" s="46"/>
+      <c r="S13" s="49">
         <v>9.4213743827369131E-3</v>
       </c>
-      <c r="T13" s="43"/>
+      <c r="T13" s="42"/>
       <c r="U13" s="7"/>
       <c r="V13" s="9"/>
       <c r="W13" s="6"/>
       <c r="X13" s="9"/>
     </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1">
+    <row r="14" spans="1:24" ht="44.25" customHeight="1">
       <c r="A14" t="str">
         <f>VLOOKUP(B14, [1]data!$B$1:$C$13, 2, FALSE)</f>
         <v>hc_key</v>
@@ -1857,31 +1870,31 @@
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="51" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="38"/>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="51" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="52" t="s">
         <v>72</v>
       </c>
       <c r="J14" s="35"/>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="53" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="19"/>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="53" t="s">
         <v>40</v>
       </c>
       <c r="N14" s="19"/>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="53" t="s">
         <v>41</v>
       </c>
       <c r="P14" s="19"/>
-      <c r="Q14" s="19" t="s">
+      <c r="Q14" s="53" t="s">
         <v>73</v>
       </c>
       <c r="R14" s="19"/>
@@ -1895,8 +1908,8 @@
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" ht="60" customHeight="1">
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="8"/>
@@ -1924,7 +1937,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1932,43 +1945,43 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="41"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="41"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="41"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
